--- a/2020年1-2月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-2月金源消耗表（财务运营共享版）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\多彩运营\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AE$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$U$21</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1062,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,6 +1298,9 @@
     <xf numFmtId="57" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1456,7 +1459,9 @@
           <cell r="I2" t="str">
             <v/>
           </cell>
-          <cell r="J2"/>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
           <cell r="K2" t="str">
             <v>预付款</v>
           </cell>
@@ -1534,7 +1539,9 @@
           <cell r="I3" t="str">
             <v/>
           </cell>
-          <cell r="J3"/>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
           <cell r="K3" t="str">
             <v>预付款</v>
           </cell>
@@ -1612,7 +1619,9 @@
           <cell r="I4" t="str">
             <v/>
           </cell>
-          <cell r="J4"/>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
           <cell r="K4" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -1690,7 +1699,9 @@
           <cell r="I5" t="str">
             <v/>
           </cell>
-          <cell r="J5"/>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
           <cell r="K5" t="str">
             <v>预存款,账期付款,预付款</v>
           </cell>
@@ -1768,7 +1779,9 @@
           <cell r="I6" t="str">
             <v/>
           </cell>
-          <cell r="J6"/>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
           <cell r="K6" t="str">
             <v>预付款</v>
           </cell>
@@ -1846,7 +1859,9 @@
           <cell r="I7" t="str">
             <v/>
           </cell>
-          <cell r="J7"/>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
           <cell r="K7" t="str">
             <v>账期付款</v>
           </cell>
@@ -1924,7 +1939,9 @@
           <cell r="I8" t="str">
             <v/>
           </cell>
-          <cell r="J8"/>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
           <cell r="K8" t="str">
             <v>账期付款</v>
           </cell>
@@ -2002,7 +2019,9 @@
           <cell r="I9" t="str">
             <v/>
           </cell>
-          <cell r="J9"/>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
           <cell r="K9" t="str">
             <v>账期付款</v>
           </cell>
@@ -2080,7 +2099,9 @@
           <cell r="I10" t="str">
             <v/>
           </cell>
-          <cell r="J10"/>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
           <cell r="K10" t="str">
             <v>预付款</v>
           </cell>
@@ -2158,7 +2179,9 @@
           <cell r="I11" t="str">
             <v>游戏主管</v>
           </cell>
-          <cell r="J11"/>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
           <cell r="K11" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -2236,7 +2259,9 @@
           <cell r="I12" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J12"/>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
           <cell r="K12" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -2314,7 +2339,9 @@
           <cell r="I13" t="str">
             <v/>
           </cell>
-          <cell r="J13"/>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
           <cell r="K13" t="str">
             <v>预付款</v>
           </cell>
@@ -2392,7 +2419,9 @@
           <cell r="I14" t="str">
             <v/>
           </cell>
-          <cell r="J14"/>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
           <cell r="K14" t="str">
             <v>账期付款</v>
           </cell>
@@ -2470,7 +2499,9 @@
           <cell r="I15" t="str">
             <v/>
           </cell>
-          <cell r="J15"/>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
           <cell r="K15" t="str">
             <v>账期付款</v>
           </cell>
@@ -2548,7 +2579,9 @@
           <cell r="I16" t="str">
             <v/>
           </cell>
-          <cell r="J16"/>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
           <cell r="K16" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -2626,7 +2659,9 @@
           <cell r="I17" t="str">
             <v/>
           </cell>
-          <cell r="J17"/>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
           <cell r="K17" t="str">
             <v>预存款</v>
           </cell>
@@ -2704,7 +2739,9 @@
           <cell r="I18" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J18"/>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
           <cell r="K18" t="str">
             <v>预存款</v>
           </cell>
@@ -2782,7 +2819,9 @@
           <cell r="I19" t="str">
             <v/>
           </cell>
-          <cell r="J19"/>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
           <cell r="K19" t="str">
             <v>预付款</v>
           </cell>
@@ -2860,7 +2899,9 @@
           <cell r="I20" t="str">
             <v/>
           </cell>
-          <cell r="J20"/>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
           <cell r="K20" t="str">
             <v>预付款</v>
           </cell>
@@ -2938,7 +2979,9 @@
           <cell r="I21" t="str">
             <v/>
           </cell>
-          <cell r="J21"/>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
           <cell r="K21" t="str">
             <v>预付款</v>
           </cell>
@@ -3016,7 +3059,9 @@
           <cell r="I22" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J22"/>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
           <cell r="K22" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -3094,7 +3139,9 @@
           <cell r="I23" t="str">
             <v/>
           </cell>
-          <cell r="J23"/>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
           <cell r="K23" t="str">
             <v>预付款</v>
           </cell>
@@ -3172,7 +3219,9 @@
           <cell r="I24" t="str">
             <v/>
           </cell>
-          <cell r="J24"/>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
           <cell r="K24" t="str">
             <v>账期付款</v>
           </cell>
@@ -3250,7 +3299,9 @@
           <cell r="I25" t="str">
             <v/>
           </cell>
-          <cell r="J25"/>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
           <cell r="K25" t="str">
             <v>账期付款</v>
           </cell>
@@ -3328,7 +3379,9 @@
           <cell r="I26" t="str">
             <v/>
           </cell>
-          <cell r="J26"/>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
           <cell r="K26" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -3406,7 +3459,9 @@
           <cell r="I27" t="str">
             <v/>
           </cell>
-          <cell r="J27"/>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
           <cell r="K27" t="str">
             <v>预付款</v>
           </cell>
@@ -3484,7 +3539,9 @@
           <cell r="I28" t="str">
             <v/>
           </cell>
-          <cell r="J28"/>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
           <cell r="K28" t="str">
             <v>账期付款</v>
           </cell>
@@ -3562,7 +3619,9 @@
           <cell r="I29" t="str">
             <v/>
           </cell>
-          <cell r="J29"/>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
           <cell r="K29" t="str">
             <v>账期付款</v>
           </cell>
@@ -3640,7 +3699,9 @@
           <cell r="I30" t="str">
             <v/>
           </cell>
-          <cell r="J30"/>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
           <cell r="K30" t="str">
             <v>账期付款</v>
           </cell>
@@ -3718,7 +3779,9 @@
           <cell r="I31" t="str">
             <v/>
           </cell>
-          <cell r="J31"/>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
           <cell r="K31" t="str">
             <v>账期付款</v>
           </cell>
@@ -3796,7 +3859,9 @@
           <cell r="I32" t="str">
             <v/>
           </cell>
-          <cell r="J32"/>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
           <cell r="K32" t="str">
             <v>账期付款</v>
           </cell>
@@ -3874,7 +3939,9 @@
           <cell r="I33" t="str">
             <v/>
           </cell>
-          <cell r="J33"/>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
           <cell r="K33" t="str">
             <v>账期付款</v>
           </cell>
@@ -3952,7 +4019,9 @@
           <cell r="I34" t="str">
             <v/>
           </cell>
-          <cell r="J34"/>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
           <cell r="K34" t="str">
             <v>账期付款</v>
           </cell>
@@ -4030,7 +4099,9 @@
           <cell r="I35" t="str">
             <v/>
           </cell>
-          <cell r="J35"/>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
           <cell r="K35" t="str">
             <v>预付款</v>
           </cell>
@@ -4108,7 +4179,9 @@
           <cell r="I36" t="str">
             <v/>
           </cell>
-          <cell r="J36"/>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
           <cell r="K36" t="str">
             <v>预存款</v>
           </cell>
@@ -4186,7 +4259,9 @@
           <cell r="I37" t="str">
             <v/>
           </cell>
-          <cell r="J37"/>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
           <cell r="K37" t="str">
             <v>预付款</v>
           </cell>
@@ -4264,7 +4339,9 @@
           <cell r="I38" t="str">
             <v/>
           </cell>
-          <cell r="J38"/>
+          <cell r="J38">
+            <v>0</v>
+          </cell>
           <cell r="K38" t="str">
             <v>预付款</v>
           </cell>
@@ -4342,7 +4419,9 @@
           <cell r="I39" t="str">
             <v/>
           </cell>
-          <cell r="J39"/>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
           <cell r="K39" t="str">
             <v>预付款</v>
           </cell>
@@ -4420,7 +4499,9 @@
           <cell r="I40" t="str">
             <v/>
           </cell>
-          <cell r="J40"/>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
           <cell r="K40" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -4498,7 +4579,9 @@
           <cell r="I41" t="str">
             <v/>
           </cell>
-          <cell r="J41"/>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
           <cell r="K41" t="str">
             <v>预付款</v>
           </cell>
@@ -4576,7 +4659,9 @@
           <cell r="I42" t="str">
             <v/>
           </cell>
-          <cell r="J42"/>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
           <cell r="K42" t="str">
             <v>预付款</v>
           </cell>
@@ -4654,7 +4739,9 @@
           <cell r="I43" t="str">
             <v/>
           </cell>
-          <cell r="J43"/>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
           <cell r="K43" t="str">
             <v>预付款</v>
           </cell>
@@ -4732,7 +4819,9 @@
           <cell r="I44" t="str">
             <v/>
           </cell>
-          <cell r="J44"/>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
           <cell r="K44" t="str">
             <v>预付款</v>
           </cell>
@@ -4810,7 +4899,9 @@
           <cell r="I45" t="str">
             <v/>
           </cell>
-          <cell r="J45"/>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
           <cell r="K45" t="str">
             <v>预付款</v>
           </cell>
@@ -4888,7 +4979,9 @@
           <cell r="I46" t="str">
             <v/>
           </cell>
-          <cell r="J46"/>
+          <cell r="J46">
+            <v>0</v>
+          </cell>
           <cell r="K46" t="str">
             <v>预付款</v>
           </cell>
@@ -4966,7 +5059,9 @@
           <cell r="I47" t="str">
             <v/>
           </cell>
-          <cell r="J47"/>
+          <cell r="J47">
+            <v>0</v>
+          </cell>
           <cell r="K47" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -5044,7 +5139,9 @@
           <cell r="I48" t="str">
             <v/>
           </cell>
-          <cell r="J48"/>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
           <cell r="K48" t="str">
             <v>预付款</v>
           </cell>
@@ -5122,7 +5219,9 @@
           <cell r="I49" t="str">
             <v/>
           </cell>
-          <cell r="J49"/>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
           <cell r="K49" t="str">
             <v>预付款</v>
           </cell>
@@ -5200,7 +5299,9 @@
           <cell r="I50" t="str">
             <v/>
           </cell>
-          <cell r="J50"/>
+          <cell r="J50">
+            <v>0</v>
+          </cell>
           <cell r="K50" t="str">
             <v>预付款</v>
           </cell>
@@ -5278,7 +5379,9 @@
           <cell r="I51" t="str">
             <v/>
           </cell>
-          <cell r="J51"/>
+          <cell r="J51">
+            <v>0</v>
+          </cell>
           <cell r="K51" t="str">
             <v>预付款</v>
           </cell>
@@ -5356,7 +5459,9 @@
           <cell r="I52" t="str">
             <v/>
           </cell>
-          <cell r="J52"/>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
           <cell r="K52" t="str">
             <v>预付款</v>
           </cell>
@@ -5434,7 +5539,9 @@
           <cell r="I53" t="str">
             <v/>
           </cell>
-          <cell r="J53"/>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
           <cell r="K53" t="str">
             <v>预付款</v>
           </cell>
@@ -5512,7 +5619,9 @@
           <cell r="I54" t="str">
             <v/>
           </cell>
-          <cell r="J54"/>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
           <cell r="K54" t="str">
             <v>账期付款</v>
           </cell>
@@ -5590,7 +5699,9 @@
           <cell r="I55" t="str">
             <v/>
           </cell>
-          <cell r="J55"/>
+          <cell r="J55">
+            <v>0</v>
+          </cell>
           <cell r="K55" t="str">
             <v>账期付款</v>
           </cell>
@@ -5668,7 +5779,9 @@
           <cell r="I56" t="str">
             <v/>
           </cell>
-          <cell r="J56"/>
+          <cell r="J56">
+            <v>0</v>
+          </cell>
           <cell r="K56" t="str">
             <v>账期付款</v>
           </cell>
@@ -5746,7 +5859,9 @@
           <cell r="I57" t="str">
             <v/>
           </cell>
-          <cell r="J57"/>
+          <cell r="J57">
+            <v>0</v>
+          </cell>
           <cell r="K57" t="str">
             <v>预付款</v>
           </cell>
@@ -5824,7 +5939,9 @@
           <cell r="I58" t="str">
             <v/>
           </cell>
-          <cell r="J58"/>
+          <cell r="J58">
+            <v>0</v>
+          </cell>
           <cell r="K58" t="str">
             <v>账期付款</v>
           </cell>
@@ -5902,7 +6019,9 @@
           <cell r="I59" t="str">
             <v/>
           </cell>
-          <cell r="J59"/>
+          <cell r="J59">
+            <v>0</v>
+          </cell>
           <cell r="K59" t="str">
             <v>预付款</v>
           </cell>
@@ -5980,7 +6099,9 @@
           <cell r="I60" t="str">
             <v/>
           </cell>
-          <cell r="J60"/>
+          <cell r="J60">
+            <v>0</v>
+          </cell>
           <cell r="K60" t="str">
             <v>预付款</v>
           </cell>
@@ -6058,7 +6179,9 @@
           <cell r="I61" t="str">
             <v/>
           </cell>
-          <cell r="J61"/>
+          <cell r="J61">
+            <v>0</v>
+          </cell>
           <cell r="K61" t="str">
             <v>预付款</v>
           </cell>
@@ -6136,7 +6259,9 @@
           <cell r="I62" t="str">
             <v/>
           </cell>
-          <cell r="J62"/>
+          <cell r="J62">
+            <v>0</v>
+          </cell>
           <cell r="K62" t="str">
             <v>预付款</v>
           </cell>
@@ -6214,7 +6339,9 @@
           <cell r="I63" t="str">
             <v/>
           </cell>
-          <cell r="J63"/>
+          <cell r="J63">
+            <v>0</v>
+          </cell>
           <cell r="K63" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -6292,7 +6419,9 @@
           <cell r="I64" t="str">
             <v/>
           </cell>
-          <cell r="J64"/>
+          <cell r="J64">
+            <v>0</v>
+          </cell>
           <cell r="K64" t="str">
             <v>预付款</v>
           </cell>
@@ -6370,7 +6499,9 @@
           <cell r="I65" t="str">
             <v/>
           </cell>
-          <cell r="J65"/>
+          <cell r="J65">
+            <v>0</v>
+          </cell>
           <cell r="K65" t="str">
             <v>预付款</v>
           </cell>
@@ -6448,7 +6579,9 @@
           <cell r="I66" t="str">
             <v/>
           </cell>
-          <cell r="J66"/>
+          <cell r="J66">
+            <v>0</v>
+          </cell>
           <cell r="K66" t="str">
             <v>预付款</v>
           </cell>
@@ -6526,7 +6659,9 @@
           <cell r="I67" t="str">
             <v/>
           </cell>
-          <cell r="J67"/>
+          <cell r="J67">
+            <v>0</v>
+          </cell>
           <cell r="K67" t="str">
             <v>预付款</v>
           </cell>
@@ -6604,7 +6739,9 @@
           <cell r="I68" t="str">
             <v>商务经纪人</v>
           </cell>
-          <cell r="J68"/>
+          <cell r="J68">
+            <v>0</v>
+          </cell>
           <cell r="K68" t="str">
             <v>预付款</v>
           </cell>
@@ -6682,7 +6819,9 @@
           <cell r="I69" t="str">
             <v/>
           </cell>
-          <cell r="J69"/>
+          <cell r="J69">
+            <v>0</v>
+          </cell>
           <cell r="K69" t="str">
             <v>账期付款</v>
           </cell>
@@ -6760,7 +6899,9 @@
           <cell r="I70" t="str">
             <v/>
           </cell>
-          <cell r="J70"/>
+          <cell r="J70">
+            <v>0</v>
+          </cell>
           <cell r="K70" t="str">
             <v>账期付款</v>
           </cell>
@@ -6838,7 +6979,9 @@
           <cell r="I71" t="str">
             <v/>
           </cell>
-          <cell r="J71"/>
+          <cell r="J71">
+            <v>0</v>
+          </cell>
           <cell r="K71" t="str">
             <v>预付款</v>
           </cell>
@@ -6916,7 +7059,9 @@
           <cell r="I72" t="str">
             <v/>
           </cell>
-          <cell r="J72"/>
+          <cell r="J72">
+            <v>0</v>
+          </cell>
           <cell r="K72" t="str">
             <v>预付款</v>
           </cell>
@@ -6994,7 +7139,9 @@
           <cell r="I73" t="str">
             <v/>
           </cell>
-          <cell r="J73"/>
+          <cell r="J73">
+            <v>0</v>
+          </cell>
           <cell r="K73" t="str">
             <v>预付款</v>
           </cell>
@@ -7072,7 +7219,9 @@
           <cell r="I74" t="str">
             <v/>
           </cell>
-          <cell r="J74"/>
+          <cell r="J74">
+            <v>0</v>
+          </cell>
           <cell r="K74" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -7150,7 +7299,9 @@
           <cell r="I75" t="str">
             <v/>
           </cell>
-          <cell r="J75"/>
+          <cell r="J75">
+            <v>0</v>
+          </cell>
           <cell r="K75" t="str">
             <v>账期付款</v>
           </cell>
@@ -7228,7 +7379,9 @@
           <cell r="I76" t="str">
             <v/>
           </cell>
-          <cell r="J76"/>
+          <cell r="J76">
+            <v>0</v>
+          </cell>
           <cell r="K76" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -7306,7 +7459,9 @@
           <cell r="I77" t="str">
             <v/>
           </cell>
-          <cell r="J77"/>
+          <cell r="J77">
+            <v>0</v>
+          </cell>
           <cell r="K77" t="str">
             <v>账期付款</v>
           </cell>
@@ -7384,7 +7539,9 @@
           <cell r="I78" t="str">
             <v/>
           </cell>
-          <cell r="J78"/>
+          <cell r="J78">
+            <v>0</v>
+          </cell>
           <cell r="K78" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -7462,7 +7619,9 @@
           <cell r="I79" t="str">
             <v/>
           </cell>
-          <cell r="J79"/>
+          <cell r="J79">
+            <v>0</v>
+          </cell>
           <cell r="K79" t="str">
             <v>预付款</v>
           </cell>
@@ -7540,7 +7699,9 @@
           <cell r="I80" t="str">
             <v/>
           </cell>
-          <cell r="J80"/>
+          <cell r="J80">
+            <v>0</v>
+          </cell>
           <cell r="K80" t="str">
             <v>预付款</v>
           </cell>
@@ -7618,7 +7779,9 @@
           <cell r="I81" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J81"/>
+          <cell r="J81">
+            <v>0</v>
+          </cell>
           <cell r="K81" t="str">
             <v>账期付款</v>
           </cell>
@@ -7696,7 +7859,9 @@
           <cell r="I82" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J82"/>
+          <cell r="J82">
+            <v>0</v>
+          </cell>
           <cell r="K82" t="str">
             <v>账期付款</v>
           </cell>
@@ -7774,7 +7939,9 @@
           <cell r="I83" t="str">
             <v/>
           </cell>
-          <cell r="J83"/>
+          <cell r="J83">
+            <v>0</v>
+          </cell>
           <cell r="K83" t="str">
             <v>预付款</v>
           </cell>
@@ -7852,7 +8019,9 @@
           <cell r="I84" t="str">
             <v>效果渠道经理</v>
           </cell>
-          <cell r="J84"/>
+          <cell r="J84">
+            <v>0</v>
+          </cell>
           <cell r="K84" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -7930,7 +8099,9 @@
           <cell r="I85" t="str">
             <v/>
           </cell>
-          <cell r="J85"/>
+          <cell r="J85">
+            <v>0</v>
+          </cell>
           <cell r="K85" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -8008,7 +8179,9 @@
           <cell r="I86" t="str">
             <v/>
           </cell>
-          <cell r="J86"/>
+          <cell r="J86">
+            <v>0</v>
+          </cell>
           <cell r="K86" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -8086,7 +8259,9 @@
           <cell r="I87" t="str">
             <v/>
           </cell>
-          <cell r="J87"/>
+          <cell r="J87">
+            <v>0</v>
+          </cell>
           <cell r="K87" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -8164,7 +8339,9 @@
           <cell r="I88" t="str">
             <v/>
           </cell>
-          <cell r="J88"/>
+          <cell r="J88">
+            <v>0</v>
+          </cell>
           <cell r="K88" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -8242,7 +8419,9 @@
           <cell r="I89" t="str">
             <v/>
           </cell>
-          <cell r="J89"/>
+          <cell r="J89">
+            <v>0</v>
+          </cell>
           <cell r="K89" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -8320,7 +8499,9 @@
           <cell r="I90" t="str">
             <v/>
           </cell>
-          <cell r="J90"/>
+          <cell r="J90">
+            <v>0</v>
+          </cell>
           <cell r="K90" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -8398,7 +8579,9 @@
           <cell r="I91" t="str">
             <v/>
           </cell>
-          <cell r="J91"/>
+          <cell r="J91">
+            <v>0</v>
+          </cell>
           <cell r="K91" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -8476,7 +8659,9 @@
           <cell r="I92" t="str">
             <v/>
           </cell>
-          <cell r="J92"/>
+          <cell r="J92">
+            <v>0</v>
+          </cell>
           <cell r="K92" t="str">
             <v>预付款</v>
           </cell>
@@ -8554,7 +8739,9 @@
           <cell r="I93" t="str">
             <v/>
           </cell>
-          <cell r="J93"/>
+          <cell r="J93">
+            <v>0</v>
+          </cell>
           <cell r="K93" t="str">
             <v>账期付款</v>
           </cell>
@@ -8632,7 +8819,9 @@
           <cell r="I94" t="str">
             <v/>
           </cell>
-          <cell r="J94"/>
+          <cell r="J94">
+            <v>0</v>
+          </cell>
           <cell r="K94" t="str">
             <v>预存款</v>
           </cell>
@@ -8710,7 +8899,9 @@
           <cell r="I95" t="str">
             <v/>
           </cell>
-          <cell r="J95"/>
+          <cell r="J95">
+            <v>0</v>
+          </cell>
           <cell r="K95" t="str">
             <v>预付款</v>
           </cell>
@@ -8788,7 +8979,9 @@
           <cell r="I96" t="str">
             <v/>
           </cell>
-          <cell r="J96"/>
+          <cell r="J96">
+            <v>0</v>
+          </cell>
           <cell r="K96" t="str">
             <v>预付款</v>
           </cell>
@@ -8866,7 +9059,9 @@
           <cell r="I97" t="str">
             <v/>
           </cell>
-          <cell r="J97"/>
+          <cell r="J97">
+            <v>0</v>
+          </cell>
           <cell r="K97" t="str">
             <v>预存款</v>
           </cell>
@@ -8944,7 +9139,9 @@
           <cell r="I98" t="str">
             <v/>
           </cell>
-          <cell r="J98"/>
+          <cell r="J98">
+            <v>0</v>
+          </cell>
           <cell r="K98" t="str">
             <v>预存款</v>
           </cell>
@@ -9022,7 +9219,9 @@
           <cell r="I99" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J99"/>
+          <cell r="J99">
+            <v>0</v>
+          </cell>
           <cell r="K99" t="str">
             <v>账期付款</v>
           </cell>
@@ -9100,7 +9299,9 @@
           <cell r="I100" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J100"/>
+          <cell r="J100">
+            <v>0</v>
+          </cell>
           <cell r="K100" t="str">
             <v>账期付款</v>
           </cell>
@@ -9178,7 +9379,9 @@
           <cell r="I101" t="str">
             <v/>
           </cell>
-          <cell r="J101"/>
+          <cell r="J101">
+            <v>0</v>
+          </cell>
           <cell r="K101" t="str">
             <v>预付款</v>
           </cell>
@@ -9256,7 +9459,9 @@
           <cell r="I102" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J102"/>
+          <cell r="J102">
+            <v>0</v>
+          </cell>
           <cell r="K102" t="str">
             <v>预存款</v>
           </cell>
@@ -9334,7 +9539,9 @@
           <cell r="I103" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J103"/>
+          <cell r="J103">
+            <v>0</v>
+          </cell>
           <cell r="K103" t="str">
             <v>预存款</v>
           </cell>
@@ -9412,7 +9619,9 @@
           <cell r="I104" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J104"/>
+          <cell r="J104">
+            <v>0</v>
+          </cell>
           <cell r="K104" t="str">
             <v>预存款</v>
           </cell>
@@ -9490,7 +9699,9 @@
           <cell r="I105" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J105"/>
+          <cell r="J105">
+            <v>0</v>
+          </cell>
           <cell r="K105" t="str">
             <v>账期付款</v>
           </cell>
@@ -9568,7 +9779,9 @@
           <cell r="I106" t="str">
             <v>CEO</v>
           </cell>
-          <cell r="J106"/>
+          <cell r="J106">
+            <v>0</v>
+          </cell>
           <cell r="K106" t="str">
             <v>账期付款</v>
           </cell>
@@ -9646,7 +9859,9 @@
           <cell r="I107" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J107"/>
+          <cell r="J107">
+            <v>0</v>
+          </cell>
           <cell r="K107" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -9724,7 +9939,9 @@
           <cell r="I108" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J108"/>
+          <cell r="J108">
+            <v>0</v>
+          </cell>
           <cell r="K108" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -9802,7 +10019,9 @@
           <cell r="I109" t="str">
             <v/>
           </cell>
-          <cell r="J109"/>
+          <cell r="J109">
+            <v>0</v>
+          </cell>
           <cell r="K109" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -9880,7 +10099,9 @@
           <cell r="I110" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J110"/>
+          <cell r="J110">
+            <v>0</v>
+          </cell>
           <cell r="K110" t="str">
             <v>账期付款</v>
           </cell>
@@ -9958,7 +10179,9 @@
           <cell r="I111" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J111"/>
+          <cell r="J111">
+            <v>0</v>
+          </cell>
           <cell r="K111" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -10036,7 +10259,9 @@
           <cell r="I112" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J112"/>
+          <cell r="J112">
+            <v>0</v>
+          </cell>
           <cell r="K112" t="str">
             <v>账期付款</v>
           </cell>
@@ -10114,7 +10339,9 @@
           <cell r="I113" t="str">
             <v>全国客户总监</v>
           </cell>
-          <cell r="J113"/>
+          <cell r="J113">
+            <v>0</v>
+          </cell>
           <cell r="K113" t="str">
             <v>预付款</v>
           </cell>
@@ -10192,7 +10419,9 @@
           <cell r="I114" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J114"/>
+          <cell r="J114">
+            <v>0</v>
+          </cell>
           <cell r="K114" t="str">
             <v>预付款</v>
           </cell>
@@ -10270,7 +10499,9 @@
           <cell r="I115" t="str">
             <v/>
           </cell>
-          <cell r="J115"/>
+          <cell r="J115">
+            <v>0</v>
+          </cell>
           <cell r="K115" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -10348,7 +10579,9 @@
           <cell r="I116" t="str">
             <v/>
           </cell>
-          <cell r="J116"/>
+          <cell r="J116">
+            <v>0</v>
+          </cell>
           <cell r="K116" t="str">
             <v>预存款</v>
           </cell>
@@ -10426,7 +10659,9 @@
           <cell r="I117" t="str">
             <v/>
           </cell>
-          <cell r="J117"/>
+          <cell r="J117">
+            <v>0</v>
+          </cell>
           <cell r="K117" t="str">
             <v>预付款</v>
           </cell>
@@ -10504,7 +10739,9 @@
           <cell r="I118" t="str">
             <v/>
           </cell>
-          <cell r="J118"/>
+          <cell r="J118">
+            <v>0</v>
+          </cell>
           <cell r="K118" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10582,7 +10819,9 @@
           <cell r="I119" t="str">
             <v/>
           </cell>
-          <cell r="J119"/>
+          <cell r="J119">
+            <v>0</v>
+          </cell>
           <cell r="K119" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10660,7 +10899,9 @@
           <cell r="I120" t="str">
             <v/>
           </cell>
-          <cell r="J120"/>
+          <cell r="J120">
+            <v>0</v>
+          </cell>
           <cell r="K120" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10738,7 +10979,9 @@
           <cell r="I121" t="str">
             <v/>
           </cell>
-          <cell r="J121"/>
+          <cell r="J121">
+            <v>0</v>
+          </cell>
           <cell r="K121" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10816,7 +11059,9 @@
           <cell r="I122" t="str">
             <v/>
           </cell>
-          <cell r="J122"/>
+          <cell r="J122">
+            <v>0</v>
+          </cell>
           <cell r="K122" t="str">
             <v>预存款</v>
           </cell>
@@ -10894,7 +11139,9 @@
           <cell r="I123" t="str">
             <v/>
           </cell>
-          <cell r="J123"/>
+          <cell r="J123">
+            <v>0</v>
+          </cell>
           <cell r="K123" t="str">
             <v>预存款</v>
           </cell>
@@ -10972,7 +11219,9 @@
           <cell r="I124" t="str">
             <v/>
           </cell>
-          <cell r="J124"/>
+          <cell r="J124">
+            <v>0</v>
+          </cell>
           <cell r="K124" t="str">
             <v>预存款</v>
           </cell>
@@ -11050,7 +11299,9 @@
           <cell r="I125" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J125"/>
+          <cell r="J125">
+            <v>0</v>
+          </cell>
           <cell r="K125" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11128,7 +11379,9 @@
           <cell r="I126" t="str">
             <v/>
           </cell>
-          <cell r="J126"/>
+          <cell r="J126">
+            <v>0</v>
+          </cell>
           <cell r="K126" t="str">
             <v>预存款</v>
           </cell>
@@ -11206,7 +11459,9 @@
           <cell r="I127" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J127"/>
+          <cell r="J127">
+            <v>0</v>
+          </cell>
           <cell r="K127" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11284,7 +11539,9 @@
           <cell r="I128" t="str">
             <v/>
           </cell>
-          <cell r="J128"/>
+          <cell r="J128">
+            <v>0</v>
+          </cell>
           <cell r="K128" t="str">
             <v>预存款</v>
           </cell>
@@ -11362,7 +11619,9 @@
           <cell r="I129" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J129"/>
+          <cell r="J129">
+            <v>0</v>
+          </cell>
           <cell r="K129" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11440,7 +11699,9 @@
           <cell r="I130" t="str">
             <v/>
           </cell>
-          <cell r="J130"/>
+          <cell r="J130">
+            <v>0</v>
+          </cell>
           <cell r="K130" t="str">
             <v>预存款</v>
           </cell>
@@ -11518,7 +11779,9 @@
           <cell r="I131" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J131"/>
+          <cell r="J131">
+            <v>0</v>
+          </cell>
           <cell r="K131" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11596,7 +11859,9 @@
           <cell r="I132" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J132"/>
+          <cell r="J132">
+            <v>0</v>
+          </cell>
           <cell r="K132" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11674,7 +11939,9 @@
           <cell r="I133" t="str">
             <v/>
           </cell>
-          <cell r="J133"/>
+          <cell r="J133">
+            <v>0</v>
+          </cell>
           <cell r="K133" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -11752,7 +12019,9 @@
           <cell r="I134" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J134"/>
+          <cell r="J134">
+            <v>0</v>
+          </cell>
           <cell r="K134" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -11830,7 +12099,9 @@
           <cell r="I135" t="str">
             <v/>
           </cell>
-          <cell r="J135"/>
+          <cell r="J135">
+            <v>0</v>
+          </cell>
           <cell r="K135" t="str">
             <v>预存款</v>
           </cell>
@@ -11908,7 +12179,9 @@
           <cell r="I136" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J136"/>
+          <cell r="J136">
+            <v>0</v>
+          </cell>
           <cell r="K136" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11986,7 +12259,9 @@
           <cell r="I137" t="str">
             <v/>
           </cell>
-          <cell r="J137"/>
+          <cell r="J137">
+            <v>0</v>
+          </cell>
           <cell r="K137" t="str">
             <v>预存款</v>
           </cell>
@@ -12064,7 +12339,9 @@
           <cell r="I138" t="str">
             <v/>
           </cell>
-          <cell r="J138"/>
+          <cell r="J138">
+            <v>0</v>
+          </cell>
           <cell r="K138" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -12142,7 +12419,9 @@
           <cell r="I139" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J139"/>
+          <cell r="J139">
+            <v>0</v>
+          </cell>
           <cell r="K139" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12220,7 +12499,9 @@
           <cell r="I140" t="str">
             <v/>
           </cell>
-          <cell r="J140"/>
+          <cell r="J140">
+            <v>0</v>
+          </cell>
           <cell r="K140" t="str">
             <v>预存款</v>
           </cell>
@@ -12298,7 +12579,9 @@
           <cell r="I141" t="str">
             <v/>
           </cell>
-          <cell r="J141"/>
+          <cell r="J141">
+            <v>0</v>
+          </cell>
           <cell r="K141" t="str">
             <v>预存款</v>
           </cell>
@@ -12376,7 +12659,9 @@
           <cell r="I142" t="str">
             <v/>
           </cell>
-          <cell r="J142"/>
+          <cell r="J142">
+            <v>0</v>
+          </cell>
           <cell r="K142" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -12454,7 +12739,9 @@
           <cell r="I143" t="str">
             <v/>
           </cell>
-          <cell r="J143"/>
+          <cell r="J143">
+            <v>0</v>
+          </cell>
           <cell r="K143" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -12532,7 +12819,9 @@
           <cell r="I144" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J144"/>
+          <cell r="J144">
+            <v>0</v>
+          </cell>
           <cell r="K144" t="str">
             <v>账期付款</v>
           </cell>
@@ -12610,7 +12899,9 @@
           <cell r="I145" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J145"/>
+          <cell r="J145">
+            <v>0</v>
+          </cell>
           <cell r="K145" t="str">
             <v>账期付款</v>
           </cell>
@@ -12688,7 +12979,9 @@
           <cell r="I146" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J146"/>
+          <cell r="J146">
+            <v>0</v>
+          </cell>
           <cell r="K146" t="str">
             <v>预付款</v>
           </cell>
@@ -12766,7 +13059,9 @@
           <cell r="I147" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J147"/>
+          <cell r="J147">
+            <v>0</v>
+          </cell>
           <cell r="K147" t="str">
             <v>预付款</v>
           </cell>
@@ -12844,7 +13139,9 @@
           <cell r="I148" t="str">
             <v/>
           </cell>
-          <cell r="J148"/>
+          <cell r="J148">
+            <v>0</v>
+          </cell>
           <cell r="K148" t="str">
             <v>预存款</v>
           </cell>
@@ -12922,7 +13219,9 @@
           <cell r="I149" t="str">
             <v/>
           </cell>
-          <cell r="J149"/>
+          <cell r="J149">
+            <v>0</v>
+          </cell>
           <cell r="K149" t="str">
             <v>预存款</v>
           </cell>
@@ -13000,7 +13299,9 @@
           <cell r="I150" t="str">
             <v/>
           </cell>
-          <cell r="J150"/>
+          <cell r="J150">
+            <v>0</v>
+          </cell>
           <cell r="K150" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13078,7 +13379,9 @@
           <cell r="I151" t="str">
             <v/>
           </cell>
-          <cell r="J151"/>
+          <cell r="J151">
+            <v>0</v>
+          </cell>
           <cell r="K151" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -13156,7 +13459,9 @@
           <cell r="I152" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J152"/>
+          <cell r="J152">
+            <v>0</v>
+          </cell>
           <cell r="K152" t="str">
             <v>账期付款</v>
           </cell>
@@ -13234,7 +13539,9 @@
           <cell r="I153" t="str">
             <v>经理</v>
           </cell>
-          <cell r="J153"/>
+          <cell r="J153">
+            <v>0</v>
+          </cell>
           <cell r="K153" t="str">
             <v>账期付款</v>
           </cell>
@@ -13312,7 +13619,9 @@
           <cell r="I154" t="str">
             <v/>
           </cell>
-          <cell r="J154"/>
+          <cell r="J154">
+            <v>0</v>
+          </cell>
           <cell r="K154" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13390,7 +13699,9 @@
           <cell r="I155" t="str">
             <v/>
           </cell>
-          <cell r="J155"/>
+          <cell r="J155">
+            <v>0</v>
+          </cell>
           <cell r="K155" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13468,7 +13779,9 @@
           <cell r="I156" t="str">
             <v/>
           </cell>
-          <cell r="J156"/>
+          <cell r="J156">
+            <v>0</v>
+          </cell>
           <cell r="K156" t="str">
             <v>账期付款</v>
           </cell>
@@ -13546,7 +13859,9 @@
           <cell r="I157" t="str">
             <v/>
           </cell>
-          <cell r="J157"/>
+          <cell r="J157">
+            <v>0</v>
+          </cell>
           <cell r="K157" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -13624,7 +13939,9 @@
           <cell r="I158" t="str">
             <v/>
           </cell>
-          <cell r="J158"/>
+          <cell r="J158">
+            <v>0</v>
+          </cell>
           <cell r="K158" t="str">
             <v>账期付款,预付款,预存款</v>
           </cell>
@@ -13702,7 +14019,9 @@
           <cell r="I159" t="str">
             <v/>
           </cell>
-          <cell r="J159"/>
+          <cell r="J159">
+            <v>0</v>
+          </cell>
           <cell r="K159" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13780,7 +14099,9 @@
           <cell r="I160" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J160"/>
+          <cell r="J160">
+            <v>0</v>
+          </cell>
           <cell r="K160" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -13858,7 +14179,9 @@
           <cell r="I161" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J161"/>
+          <cell r="J161">
+            <v>0</v>
+          </cell>
           <cell r="K161" t="str">
             <v>账期付款</v>
           </cell>
@@ -13936,7 +14259,9 @@
           <cell r="I162" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J162"/>
+          <cell r="J162">
+            <v>0</v>
+          </cell>
           <cell r="K162" t="str">
             <v>账期付款</v>
           </cell>
@@ -14014,7 +14339,9 @@
           <cell r="I163" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J163"/>
+          <cell r="J163">
+            <v>0</v>
+          </cell>
           <cell r="K163" t="str">
             <v>预付款</v>
           </cell>
@@ -14092,7 +14419,9 @@
           <cell r="I164" t="str">
             <v/>
           </cell>
-          <cell r="J164"/>
+          <cell r="J164">
+            <v>0</v>
+          </cell>
           <cell r="K164" t="str">
             <v>账期付款</v>
           </cell>
@@ -14170,7 +14499,9 @@
           <cell r="I165" t="str">
             <v/>
           </cell>
-          <cell r="J165"/>
+          <cell r="J165">
+            <v>0</v>
+          </cell>
           <cell r="K165" t="str">
             <v>预存款</v>
           </cell>
@@ -14248,7 +14579,9 @@
           <cell r="I166" t="str">
             <v/>
           </cell>
-          <cell r="J166"/>
+          <cell r="J166">
+            <v>0</v>
+          </cell>
           <cell r="K166" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -14326,7 +14659,9 @@
           <cell r="I167" t="str">
             <v/>
           </cell>
-          <cell r="J167"/>
+          <cell r="J167">
+            <v>0</v>
+          </cell>
           <cell r="K167" t="str">
             <v>预付款</v>
           </cell>
@@ -14404,7 +14739,9 @@
           <cell r="I168" t="str">
             <v/>
           </cell>
-          <cell r="J168"/>
+          <cell r="J168">
+            <v>0</v>
+          </cell>
           <cell r="K168" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -14482,7 +14819,9 @@
           <cell r="I169" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J169"/>
+          <cell r="J169">
+            <v>0</v>
+          </cell>
           <cell r="K169" t="str">
             <v>账期付款</v>
           </cell>
@@ -14560,7 +14899,9 @@
           <cell r="I170" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J170"/>
+          <cell r="J170">
+            <v>0</v>
+          </cell>
           <cell r="K170" t="str">
             <v>账期付款</v>
           </cell>
@@ -14638,7 +14979,9 @@
           <cell r="I171" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J171"/>
+          <cell r="J171">
+            <v>0</v>
+          </cell>
           <cell r="K171" t="str">
             <v>账期付款</v>
           </cell>
@@ -14716,7 +15059,9 @@
           <cell r="I172" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J172"/>
+          <cell r="J172">
+            <v>0</v>
+          </cell>
           <cell r="K172" t="str">
             <v>账期付款</v>
           </cell>
@@ -14794,7 +15139,9 @@
           <cell r="I173" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J173"/>
+          <cell r="J173">
+            <v>0</v>
+          </cell>
           <cell r="K173" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -14872,7 +15219,9 @@
           <cell r="I174" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J174"/>
+          <cell r="J174">
+            <v>0</v>
+          </cell>
           <cell r="K174" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -14950,7 +15299,9 @@
           <cell r="I175" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J175"/>
+          <cell r="J175">
+            <v>0</v>
+          </cell>
           <cell r="K175" t="str">
             <v>预付款</v>
           </cell>
@@ -15028,7 +15379,9 @@
           <cell r="I176" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J176"/>
+          <cell r="J176">
+            <v>0</v>
+          </cell>
           <cell r="K176" t="str">
             <v>预付款</v>
           </cell>
@@ -15106,7 +15459,9 @@
           <cell r="I177" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J177"/>
+          <cell r="J177">
+            <v>0</v>
+          </cell>
           <cell r="K177" t="str">
             <v>预付款</v>
           </cell>
@@ -15184,7 +15539,9 @@
           <cell r="I178" t="str">
             <v/>
           </cell>
-          <cell r="J178"/>
+          <cell r="J178">
+            <v>0</v>
+          </cell>
           <cell r="K178" t="str">
             <v>预付款</v>
           </cell>
@@ -15262,7 +15619,9 @@
           <cell r="I179" t="str">
             <v/>
           </cell>
-          <cell r="J179"/>
+          <cell r="J179">
+            <v>0</v>
+          </cell>
           <cell r="K179" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -15340,7 +15699,9 @@
           <cell r="I180" t="str">
             <v>项目经理</v>
           </cell>
-          <cell r="J180"/>
+          <cell r="J180">
+            <v>0</v>
+          </cell>
           <cell r="K180" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -15418,7 +15779,9 @@
           <cell r="I181" t="str">
             <v/>
           </cell>
-          <cell r="J181"/>
+          <cell r="J181">
+            <v>0</v>
+          </cell>
           <cell r="K181" t="str">
             <v>账期付款</v>
           </cell>
@@ -15496,7 +15859,9 @@
           <cell r="I182" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J182"/>
+          <cell r="J182">
+            <v>0</v>
+          </cell>
           <cell r="K182" t="str">
             <v>预付款</v>
           </cell>
@@ -15574,7 +15939,9 @@
           <cell r="I183" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J183"/>
+          <cell r="J183">
+            <v>0</v>
+          </cell>
           <cell r="K183" t="str">
             <v>预付款</v>
           </cell>
@@ -15652,7 +16019,9 @@
           <cell r="I184" t="str">
             <v/>
           </cell>
-          <cell r="J184"/>
+          <cell r="J184">
+            <v>0</v>
+          </cell>
           <cell r="K184" t="str">
             <v>账期付款</v>
           </cell>
@@ -15730,7 +16099,9 @@
           <cell r="I185" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J185"/>
+          <cell r="J185">
+            <v>0</v>
+          </cell>
           <cell r="K185" t="str">
             <v>预付款</v>
           </cell>
@@ -15808,7 +16179,9 @@
           <cell r="I186" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J186"/>
+          <cell r="J186">
+            <v>0</v>
+          </cell>
           <cell r="K186" t="str">
             <v>预付款</v>
           </cell>
@@ -15886,7 +16259,9 @@
           <cell r="I187" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J187"/>
+          <cell r="J187">
+            <v>0</v>
+          </cell>
           <cell r="K187" t="str">
             <v>预付款</v>
           </cell>
@@ -15964,7 +16339,9 @@
           <cell r="I188" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J188"/>
+          <cell r="J188">
+            <v>0</v>
+          </cell>
           <cell r="K188" t="str">
             <v>预付款</v>
           </cell>
@@ -16042,7 +16419,9 @@
           <cell r="I189" t="str">
             <v>客户经理</v>
           </cell>
-          <cell r="J189"/>
+          <cell r="J189">
+            <v>0</v>
+          </cell>
           <cell r="K189" t="str">
             <v>预付款</v>
           </cell>
@@ -16120,7 +16499,9 @@
           <cell r="I190" t="str">
             <v/>
           </cell>
-          <cell r="J190"/>
+          <cell r="J190">
+            <v>0</v>
+          </cell>
           <cell r="K190" t="str">
             <v>账期付款</v>
           </cell>
@@ -16198,7 +16579,9 @@
           <cell r="I191" t="str">
             <v/>
           </cell>
-          <cell r="J191"/>
+          <cell r="J191">
+            <v>0</v>
+          </cell>
           <cell r="K191" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -16276,7 +16659,9 @@
           <cell r="I192" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J192"/>
+          <cell r="J192">
+            <v>0</v>
+          </cell>
           <cell r="K192" t="str">
             <v>预付款</v>
           </cell>
@@ -16354,7 +16739,9 @@
           <cell r="I193" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J193"/>
+          <cell r="J193">
+            <v>0</v>
+          </cell>
           <cell r="K193" t="str">
             <v>预付款</v>
           </cell>
@@ -16432,7 +16819,9 @@
           <cell r="I194" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J194"/>
+          <cell r="J194">
+            <v>0</v>
+          </cell>
           <cell r="K194" t="str">
             <v>账期付款</v>
           </cell>
@@ -16510,7 +16899,9 @@
           <cell r="I195" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J195"/>
+          <cell r="J195">
+            <v>0</v>
+          </cell>
           <cell r="K195" t="str">
             <v>账期付款</v>
           </cell>
@@ -16588,7 +16979,9 @@
           <cell r="I196" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J196"/>
+          <cell r="J196">
+            <v>0</v>
+          </cell>
           <cell r="K196" t="str">
             <v>账期付款</v>
           </cell>
@@ -16666,7 +17059,9 @@
           <cell r="I197" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J197"/>
+          <cell r="J197">
+            <v>0</v>
+          </cell>
           <cell r="K197" t="str">
             <v>预付款</v>
           </cell>
@@ -16744,7 +17139,9 @@
           <cell r="I198" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J198"/>
+          <cell r="J198">
+            <v>0</v>
+          </cell>
           <cell r="K198" t="str">
             <v>预付款</v>
           </cell>
@@ -16822,7 +17219,9 @@
           <cell r="I199" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J199"/>
+          <cell r="J199">
+            <v>0</v>
+          </cell>
           <cell r="K199" t="str">
             <v>预付款</v>
           </cell>
@@ -16900,7 +17299,9 @@
           <cell r="I200" t="str">
             <v/>
           </cell>
-          <cell r="J200"/>
+          <cell r="J200">
+            <v>0</v>
+          </cell>
           <cell r="K200" t="str">
             <v>预付款</v>
           </cell>
@@ -16978,7 +17379,9 @@
           <cell r="I201" t="str">
             <v>高级媒介经理</v>
           </cell>
-          <cell r="J201"/>
+          <cell r="J201">
+            <v>0</v>
+          </cell>
           <cell r="K201" t="str">
             <v>预付款</v>
           </cell>
@@ -17056,7 +17459,9 @@
           <cell r="I202" t="str">
             <v/>
           </cell>
-          <cell r="J202"/>
+          <cell r="J202">
+            <v>0</v>
+          </cell>
           <cell r="K202" t="str">
             <v>预付款</v>
           </cell>
@@ -17134,7 +17539,9 @@
           <cell r="I203" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J203"/>
+          <cell r="J203">
+            <v>0</v>
+          </cell>
           <cell r="K203" t="str">
             <v>预付款</v>
           </cell>
@@ -17212,7 +17619,9 @@
           <cell r="I204" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J204"/>
+          <cell r="J204">
+            <v>0</v>
+          </cell>
           <cell r="K204" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -17290,7 +17699,9 @@
           <cell r="I205" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J205"/>
+          <cell r="J205">
+            <v>0</v>
+          </cell>
           <cell r="K205" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -17368,7 +17779,9 @@
           <cell r="I206" t="str">
             <v>销售经理</v>
           </cell>
-          <cell r="J206"/>
+          <cell r="J206">
+            <v>0</v>
+          </cell>
           <cell r="K206" t="str">
             <v>预付款</v>
           </cell>
@@ -17446,7 +17859,9 @@
           <cell r="I207" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J207"/>
+          <cell r="J207">
+            <v>0</v>
+          </cell>
           <cell r="K207" t="str">
             <v>预付款</v>
           </cell>
@@ -17524,7 +17939,9 @@
           <cell r="I208" t="str">
             <v/>
           </cell>
-          <cell r="J208"/>
+          <cell r="J208">
+            <v>0</v>
+          </cell>
           <cell r="K208" t="str">
             <v>账期付款</v>
           </cell>
@@ -17602,7 +18019,9 @@
           <cell r="I209" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J209"/>
+          <cell r="J209">
+            <v>0</v>
+          </cell>
           <cell r="K209" t="str">
             <v>账期付款</v>
           </cell>
@@ -17680,7 +18099,9 @@
           <cell r="I210" t="str">
             <v>渠道销售总监</v>
           </cell>
-          <cell r="J210"/>
+          <cell r="J210">
+            <v>0</v>
+          </cell>
           <cell r="K210" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -17758,7 +18179,9 @@
           <cell r="I211" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J211"/>
+          <cell r="J211">
+            <v>0</v>
+          </cell>
           <cell r="K211" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -17836,7 +18259,9 @@
           <cell r="I212" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J212"/>
+          <cell r="J212">
+            <v>0</v>
+          </cell>
           <cell r="K212" t="str">
             <v>预付款</v>
           </cell>
@@ -17914,7 +18339,9 @@
           <cell r="I213" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J213"/>
+          <cell r="J213">
+            <v>0</v>
+          </cell>
           <cell r="K213" t="str">
             <v>预付款</v>
           </cell>
@@ -17992,7 +18419,9 @@
           <cell r="I214" t="str">
             <v/>
           </cell>
-          <cell r="J214"/>
+          <cell r="J214">
+            <v>0</v>
+          </cell>
           <cell r="K214" t="str">
             <v>预付款</v>
           </cell>
@@ -18070,7 +18499,9 @@
           <cell r="I215" t="str">
             <v/>
           </cell>
-          <cell r="J215"/>
+          <cell r="J215">
+            <v>0</v>
+          </cell>
           <cell r="K215" t="str">
             <v>预付款</v>
           </cell>
@@ -18148,7 +18579,9 @@
           <cell r="I216" t="str">
             <v/>
           </cell>
-          <cell r="J216"/>
+          <cell r="J216">
+            <v>0</v>
+          </cell>
           <cell r="K216" t="str">
             <v>预存款</v>
           </cell>
@@ -18226,7 +18659,9 @@
           <cell r="I217" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J217"/>
+          <cell r="J217">
+            <v>0</v>
+          </cell>
           <cell r="K217" t="str">
             <v>预付款</v>
           </cell>
@@ -18304,7 +18739,9 @@
           <cell r="I218" t="str">
             <v/>
           </cell>
-          <cell r="J218"/>
+          <cell r="J218">
+            <v>0</v>
+          </cell>
           <cell r="K218" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -18382,7 +18819,9 @@
           <cell r="I219" t="str">
             <v/>
           </cell>
-          <cell r="J219"/>
+          <cell r="J219">
+            <v>0</v>
+          </cell>
           <cell r="K219" t="str">
             <v>预付款</v>
           </cell>
@@ -18460,7 +18899,9 @@
           <cell r="I220" t="str">
             <v/>
           </cell>
-          <cell r="J220"/>
+          <cell r="J220">
+            <v>0</v>
+          </cell>
           <cell r="K220" t="str">
             <v>账期付款</v>
           </cell>
@@ -18538,7 +18979,9 @@
           <cell r="I221" t="str">
             <v/>
           </cell>
-          <cell r="J221"/>
+          <cell r="J221">
+            <v>0</v>
+          </cell>
           <cell r="K221" t="str">
             <v>预付款</v>
           </cell>
@@ -18616,7 +19059,9 @@
           <cell r="I222" t="str">
             <v/>
           </cell>
-          <cell r="J222"/>
+          <cell r="J222">
+            <v>0</v>
+          </cell>
           <cell r="K222" t="str">
             <v>预付款</v>
           </cell>
@@ -18694,7 +19139,9 @@
           <cell r="I223" t="str">
             <v/>
           </cell>
-          <cell r="J223"/>
+          <cell r="J223">
+            <v>0</v>
+          </cell>
           <cell r="K223" t="str">
             <v>预存款</v>
           </cell>
@@ -18772,7 +19219,9 @@
           <cell r="I224" t="str">
             <v/>
           </cell>
-          <cell r="J224"/>
+          <cell r="J224">
+            <v>0</v>
+          </cell>
           <cell r="K224" t="str">
             <v>预存款</v>
           </cell>
@@ -18850,7 +19299,9 @@
           <cell r="I225" t="str">
             <v/>
           </cell>
-          <cell r="J225"/>
+          <cell r="J225">
+            <v>0</v>
+          </cell>
           <cell r="K225" t="str">
             <v>预存款</v>
           </cell>
@@ -18928,7 +19379,9 @@
           <cell r="I226" t="str">
             <v/>
           </cell>
-          <cell r="J226"/>
+          <cell r="J226">
+            <v>0</v>
+          </cell>
           <cell r="K226" t="str">
             <v>预存款</v>
           </cell>
@@ -19006,7 +19459,9 @@
           <cell r="I227" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J227"/>
+          <cell r="J227">
+            <v>0</v>
+          </cell>
           <cell r="K227" t="str">
             <v>预付款</v>
           </cell>
@@ -19084,7 +19539,9 @@
           <cell r="I228" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J228"/>
+          <cell r="J228">
+            <v>0</v>
+          </cell>
           <cell r="K228" t="str">
             <v>预存款</v>
           </cell>
@@ -19162,7 +19619,9 @@
           <cell r="I229" t="str">
             <v/>
           </cell>
-          <cell r="J229"/>
+          <cell r="J229">
+            <v>0</v>
+          </cell>
           <cell r="K229" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -19240,7 +19699,9 @@
           <cell r="I230" t="str">
             <v/>
           </cell>
-          <cell r="J230"/>
+          <cell r="J230">
+            <v>0</v>
+          </cell>
           <cell r="K230" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -19318,7 +19779,9 @@
           <cell r="I231" t="str">
             <v/>
           </cell>
-          <cell r="J231"/>
+          <cell r="J231">
+            <v>0</v>
+          </cell>
           <cell r="K231" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -19396,7 +19859,9 @@
           <cell r="I232" t="str">
             <v/>
           </cell>
-          <cell r="J232"/>
+          <cell r="J232">
+            <v>0</v>
+          </cell>
           <cell r="K232" t="str">
             <v>预付款</v>
           </cell>
@@ -19474,7 +19939,9 @@
           <cell r="I233" t="str">
             <v/>
           </cell>
-          <cell r="J233"/>
+          <cell r="J233">
+            <v>0</v>
+          </cell>
           <cell r="K233" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -19552,7 +20019,9 @@
           <cell r="I234" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J234"/>
+          <cell r="J234">
+            <v>0</v>
+          </cell>
           <cell r="K234" t="str">
             <v>预付款</v>
           </cell>
@@ -19630,7 +20099,9 @@
           <cell r="I235" t="str">
             <v>销售合伙人</v>
           </cell>
-          <cell r="J235"/>
+          <cell r="J235">
+            <v>0</v>
+          </cell>
           <cell r="K235" t="str">
             <v>预付款</v>
           </cell>
@@ -19708,7 +20179,9 @@
           <cell r="I236" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J236"/>
+          <cell r="J236">
+            <v>0</v>
+          </cell>
           <cell r="K236" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -19786,7 +20259,9 @@
           <cell r="I237" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J237"/>
+          <cell r="J237">
+            <v>0</v>
+          </cell>
           <cell r="K237" t="str">
             <v>预付款</v>
           </cell>
@@ -19864,7 +20339,9 @@
           <cell r="I238" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J238"/>
+          <cell r="J238">
+            <v>0</v>
+          </cell>
           <cell r="K238" t="str">
             <v>预付款</v>
           </cell>
@@ -19942,7 +20419,9 @@
           <cell r="I239" t="str">
             <v/>
           </cell>
-          <cell r="J239"/>
+          <cell r="J239">
+            <v>0</v>
+          </cell>
           <cell r="K239" t="str">
             <v>账期付款</v>
           </cell>
@@ -20020,7 +20499,9 @@
           <cell r="I240" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J240"/>
+          <cell r="J240">
+            <v>0</v>
+          </cell>
           <cell r="K240" t="str">
             <v>预付款</v>
           </cell>
@@ -20098,7 +20579,9 @@
           <cell r="I241" t="str">
             <v/>
           </cell>
-          <cell r="J241"/>
+          <cell r="J241">
+            <v>0</v>
+          </cell>
           <cell r="K241" t="str">
             <v>预存款</v>
           </cell>
@@ -20176,7 +20659,9 @@
           <cell r="I242" t="str">
             <v/>
           </cell>
-          <cell r="J242"/>
+          <cell r="J242">
+            <v>0</v>
+          </cell>
           <cell r="K242" t="str">
             <v>预存款</v>
           </cell>
@@ -20254,7 +20739,9 @@
           <cell r="I243" t="str">
             <v/>
           </cell>
-          <cell r="J243"/>
+          <cell r="J243">
+            <v>0</v>
+          </cell>
           <cell r="K243" t="str">
             <v>预付款</v>
           </cell>
@@ -20332,7 +20819,9 @@
           <cell r="I244" t="str">
             <v/>
           </cell>
-          <cell r="J244"/>
+          <cell r="J244">
+            <v>0</v>
+          </cell>
           <cell r="K244" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -20410,7 +20899,9 @@
           <cell r="I245" t="str">
             <v/>
           </cell>
-          <cell r="J245"/>
+          <cell r="J245">
+            <v>0</v>
+          </cell>
           <cell r="K245" t="str">
             <v>预存款</v>
           </cell>
@@ -20488,7 +20979,9 @@
           <cell r="I246" t="str">
             <v/>
           </cell>
-          <cell r="J246"/>
+          <cell r="J246">
+            <v>0</v>
+          </cell>
           <cell r="K246" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -20566,7 +21059,9 @@
           <cell r="I247" t="str">
             <v/>
           </cell>
-          <cell r="J247"/>
+          <cell r="J247">
+            <v>0</v>
+          </cell>
           <cell r="K247" t="str">
             <v>账期付款</v>
           </cell>
@@ -20644,7 +21139,9 @@
           <cell r="I248" t="str">
             <v/>
           </cell>
-          <cell r="J248"/>
+          <cell r="J248">
+            <v>0</v>
+          </cell>
           <cell r="K248" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -20722,7 +21219,9 @@
           <cell r="I249" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J249"/>
+          <cell r="J249">
+            <v>0</v>
+          </cell>
           <cell r="K249" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -20800,7 +21299,9 @@
           <cell r="I250" t="str">
             <v/>
           </cell>
-          <cell r="J250"/>
+          <cell r="J250">
+            <v>0</v>
+          </cell>
           <cell r="K250" t="str">
             <v>账期付款</v>
           </cell>
@@ -20878,7 +21379,9 @@
           <cell r="I251" t="str">
             <v/>
           </cell>
-          <cell r="J251"/>
+          <cell r="J251">
+            <v>0</v>
+          </cell>
           <cell r="K251" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -20956,7 +21459,9 @@
           <cell r="I252" t="str">
             <v/>
           </cell>
-          <cell r="J252"/>
+          <cell r="J252">
+            <v>0</v>
+          </cell>
           <cell r="K252" t="str">
             <v>账期付款</v>
           </cell>
@@ -21034,7 +21539,9 @@
           <cell r="I253" t="str">
             <v/>
           </cell>
-          <cell r="J253"/>
+          <cell r="J253">
+            <v>0</v>
+          </cell>
           <cell r="K253" t="str">
             <v>预付款</v>
           </cell>
@@ -21112,7 +21619,9 @@
           <cell r="I254" t="str">
             <v/>
           </cell>
-          <cell r="J254"/>
+          <cell r="J254">
+            <v>0</v>
+          </cell>
           <cell r="K254" t="str">
             <v>账期付款</v>
           </cell>
@@ -21190,7 +21699,9 @@
           <cell r="I255" t="str">
             <v/>
           </cell>
-          <cell r="J255"/>
+          <cell r="J255">
+            <v>0</v>
+          </cell>
           <cell r="K255" t="str">
             <v>预付款</v>
           </cell>
@@ -21268,7 +21779,9 @@
           <cell r="I256" t="str">
             <v/>
           </cell>
-          <cell r="J256"/>
+          <cell r="J256">
+            <v>0</v>
+          </cell>
           <cell r="K256" t="str">
             <v>预付款</v>
           </cell>
@@ -21346,7 +21859,9 @@
           <cell r="I257" t="str">
             <v/>
           </cell>
-          <cell r="J257"/>
+          <cell r="J257">
+            <v>0</v>
+          </cell>
           <cell r="K257" t="str">
             <v>预付款</v>
           </cell>
@@ -21424,7 +21939,9 @@
           <cell r="I258" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J258"/>
+          <cell r="J258">
+            <v>0</v>
+          </cell>
           <cell r="K258" t="str">
             <v>预付款</v>
           </cell>
@@ -21502,7 +22019,9 @@
           <cell r="I259" t="str">
             <v/>
           </cell>
-          <cell r="J259"/>
+          <cell r="J259">
+            <v>0</v>
+          </cell>
           <cell r="K259" t="str">
             <v>预付款</v>
           </cell>
@@ -21580,7 +22099,9 @@
           <cell r="I260" t="str">
             <v/>
           </cell>
-          <cell r="J260"/>
+          <cell r="J260">
+            <v>0</v>
+          </cell>
           <cell r="K260" t="str">
             <v>账期付款</v>
           </cell>
@@ -21658,7 +22179,9 @@
           <cell r="I261" t="str">
             <v/>
           </cell>
-          <cell r="J261"/>
+          <cell r="J261">
+            <v>0</v>
+          </cell>
           <cell r="K261" t="str">
             <v>账期付款</v>
           </cell>
@@ -21736,7 +22259,9 @@
           <cell r="I262" t="str">
             <v/>
           </cell>
-          <cell r="J262"/>
+          <cell r="J262">
+            <v>0</v>
+          </cell>
           <cell r="K262" t="str">
             <v>账期付款</v>
           </cell>
@@ -21814,7 +22339,9 @@
           <cell r="I263" t="str">
             <v/>
           </cell>
-          <cell r="J263"/>
+          <cell r="J263">
+            <v>0</v>
+          </cell>
           <cell r="K263" t="str">
             <v>账期付款</v>
           </cell>
@@ -21892,7 +22419,9 @@
           <cell r="I264" t="str">
             <v/>
           </cell>
-          <cell r="J264"/>
+          <cell r="J264">
+            <v>0</v>
+          </cell>
           <cell r="K264" t="str">
             <v>账期付款</v>
           </cell>
@@ -21970,7 +22499,9 @@
           <cell r="I265" t="str">
             <v>媒介经理</v>
           </cell>
-          <cell r="J265"/>
+          <cell r="J265">
+            <v>0</v>
+          </cell>
           <cell r="K265" t="str">
             <v>预付款</v>
           </cell>
@@ -22048,7 +22579,9 @@
           <cell r="I266" t="str">
             <v/>
           </cell>
-          <cell r="J266"/>
+          <cell r="J266">
+            <v>0</v>
+          </cell>
           <cell r="K266" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -22126,7 +22659,9 @@
           <cell r="I267" t="str">
             <v/>
           </cell>
-          <cell r="J267"/>
+          <cell r="J267">
+            <v>0</v>
+          </cell>
           <cell r="K267" t="str">
             <v>账期付款</v>
           </cell>
@@ -22204,7 +22739,9 @@
           <cell r="I268" t="str">
             <v/>
           </cell>
-          <cell r="J268"/>
+          <cell r="J268">
+            <v>0</v>
+          </cell>
           <cell r="K268" t="str">
             <v>预付款</v>
           </cell>
@@ -22282,7 +22819,9 @@
           <cell r="I269" t="str">
             <v/>
           </cell>
-          <cell r="J269"/>
+          <cell r="J269">
+            <v>0</v>
+          </cell>
           <cell r="K269" t="str">
             <v>预付款</v>
           </cell>
@@ -22360,7 +22899,9 @@
           <cell r="I270" t="str">
             <v>商务媒介</v>
           </cell>
-          <cell r="J270"/>
+          <cell r="J270">
+            <v>0</v>
+          </cell>
           <cell r="K270" t="str">
             <v>预付款</v>
           </cell>
@@ -22438,7 +22979,9 @@
           <cell r="I271" t="str">
             <v>移动事业部|渠道副总监</v>
           </cell>
-          <cell r="J271"/>
+          <cell r="J271">
+            <v>0</v>
+          </cell>
           <cell r="K271" t="str">
             <v>预付款</v>
           </cell>
@@ -22516,7 +23059,9 @@
           <cell r="I272" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J272"/>
+          <cell r="J272">
+            <v>0</v>
+          </cell>
           <cell r="K272" t="str">
             <v>预存款</v>
           </cell>
@@ -22594,7 +23139,9 @@
           <cell r="I273" t="str">
             <v/>
           </cell>
-          <cell r="J273"/>
+          <cell r="J273">
+            <v>0</v>
+          </cell>
           <cell r="K273" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -22672,7 +23219,9 @@
           <cell r="I274" t="str">
             <v/>
           </cell>
-          <cell r="J274"/>
+          <cell r="J274">
+            <v>0</v>
+          </cell>
           <cell r="K274" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -22750,7 +23299,9 @@
           <cell r="I275" t="str">
             <v/>
           </cell>
-          <cell r="J275"/>
+          <cell r="J275">
+            <v>0</v>
+          </cell>
           <cell r="K275" t="str">
             <v>预付款</v>
           </cell>
@@ -22828,7 +23379,9 @@
           <cell r="I276" t="str">
             <v/>
           </cell>
-          <cell r="J276"/>
+          <cell r="J276">
+            <v>0</v>
+          </cell>
           <cell r="K276" t="str">
             <v>预付款</v>
           </cell>
@@ -22906,7 +23459,9 @@
           <cell r="I277" t="str">
             <v/>
           </cell>
-          <cell r="J277"/>
+          <cell r="J277">
+            <v>0</v>
+          </cell>
           <cell r="K277" t="str">
             <v>账期付款</v>
           </cell>
@@ -22984,7 +23539,9 @@
           <cell r="I278" t="str">
             <v/>
           </cell>
-          <cell r="J278"/>
+          <cell r="J278">
+            <v>0</v>
+          </cell>
           <cell r="K278" t="str">
             <v>账期付款</v>
           </cell>
@@ -23062,7 +23619,9 @@
           <cell r="I279" t="str">
             <v>全国渠道经理</v>
           </cell>
-          <cell r="J279"/>
+          <cell r="J279">
+            <v>0</v>
+          </cell>
           <cell r="K279" t="str">
             <v>预付款</v>
           </cell>
@@ -23140,7 +23699,9 @@
           <cell r="I280" t="str">
             <v/>
           </cell>
-          <cell r="J280"/>
+          <cell r="J280">
+            <v>0</v>
+          </cell>
           <cell r="K280" t="str">
             <v>账期付款</v>
           </cell>
@@ -23218,7 +23779,9 @@
           <cell r="I281" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J281"/>
+          <cell r="J281">
+            <v>0</v>
+          </cell>
           <cell r="K281" t="str">
             <v>预付款</v>
           </cell>
@@ -23296,7 +23859,9 @@
           <cell r="I282" t="str">
             <v/>
           </cell>
-          <cell r="J282"/>
+          <cell r="J282">
+            <v>0</v>
+          </cell>
           <cell r="K282" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23374,7 +23939,9 @@
           <cell r="I283" t="str">
             <v/>
           </cell>
-          <cell r="J283"/>
+          <cell r="J283">
+            <v>0</v>
+          </cell>
           <cell r="K283" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23452,7 +24019,9 @@
           <cell r="I284" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J284"/>
+          <cell r="J284">
+            <v>0</v>
+          </cell>
           <cell r="K284" t="str">
             <v>账期付款,预存款,预付款</v>
           </cell>
@@ -23530,7 +24099,9 @@
           <cell r="I285" t="str">
             <v/>
           </cell>
-          <cell r="J285"/>
+          <cell r="J285">
+            <v>0</v>
+          </cell>
           <cell r="K285" t="str">
             <v>预付款</v>
           </cell>
@@ -23608,7 +24179,9 @@
           <cell r="I286" t="str">
             <v/>
           </cell>
-          <cell r="J286"/>
+          <cell r="J286">
+            <v>0</v>
+          </cell>
           <cell r="K286" t="str">
             <v>预付款</v>
           </cell>
@@ -23686,7 +24259,9 @@
           <cell r="I287" t="str">
             <v/>
           </cell>
-          <cell r="J287"/>
+          <cell r="J287">
+            <v>0</v>
+          </cell>
           <cell r="K287" t="str">
             <v>预付款</v>
           </cell>
@@ -23764,7 +24339,9 @@
           <cell r="I288" t="str">
             <v/>
           </cell>
-          <cell r="J288"/>
+          <cell r="J288">
+            <v>0</v>
+          </cell>
           <cell r="K288" t="str">
             <v>预付款</v>
           </cell>
@@ -23842,7 +24419,9 @@
           <cell r="I289" t="str">
             <v/>
           </cell>
-          <cell r="J289"/>
+          <cell r="J289">
+            <v>0</v>
+          </cell>
           <cell r="K289" t="str">
             <v>账期付款</v>
           </cell>
@@ -23920,7 +24499,9 @@
           <cell r="I290" t="str">
             <v/>
           </cell>
-          <cell r="J290"/>
+          <cell r="J290">
+            <v>0</v>
+          </cell>
           <cell r="K290" t="str">
             <v>预付款</v>
           </cell>
@@ -23998,7 +24579,9 @@
           <cell r="I291" t="str">
             <v/>
           </cell>
-          <cell r="J291"/>
+          <cell r="J291">
+            <v>0</v>
+          </cell>
           <cell r="K291" t="str">
             <v>预存款</v>
           </cell>
@@ -24076,7 +24659,9 @@
           <cell r="I292" t="str">
             <v/>
           </cell>
-          <cell r="J292"/>
+          <cell r="J292">
+            <v>0</v>
+          </cell>
           <cell r="K292" t="str">
             <v>预付款</v>
           </cell>
@@ -24154,7 +24739,9 @@
           <cell r="I293" t="str">
             <v/>
           </cell>
-          <cell r="J293"/>
+          <cell r="J293">
+            <v>0</v>
+          </cell>
           <cell r="K293" t="str">
             <v>预付款</v>
           </cell>
@@ -24232,7 +24819,9 @@
           <cell r="I294" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J294"/>
+          <cell r="J294">
+            <v>0</v>
+          </cell>
           <cell r="K294" t="str">
             <v>预付款</v>
           </cell>
@@ -24310,7 +24899,9 @@
           <cell r="I295" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J295"/>
+          <cell r="J295">
+            <v>0</v>
+          </cell>
           <cell r="K295" t="str">
             <v>预付款</v>
           </cell>
@@ -24388,7 +24979,9 @@
           <cell r="I296" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J296"/>
+          <cell r="J296">
+            <v>0</v>
+          </cell>
           <cell r="K296" t="str">
             <v>预付款</v>
           </cell>
@@ -24466,7 +25059,9 @@
           <cell r="I297" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J297"/>
+          <cell r="J297">
+            <v>0</v>
+          </cell>
           <cell r="K297" t="str">
             <v>预付款</v>
           </cell>
@@ -24544,7 +25139,9 @@
           <cell r="I298" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J298"/>
+          <cell r="J298">
+            <v>0</v>
+          </cell>
           <cell r="K298" t="str">
             <v>预付款</v>
           </cell>
@@ -24622,7 +25219,9 @@
           <cell r="I299" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J299"/>
+          <cell r="J299">
+            <v>0</v>
+          </cell>
           <cell r="K299" t="str">
             <v>预付款</v>
           </cell>
@@ -24700,7 +25299,9 @@
           <cell r="I300" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J300"/>
+          <cell r="J300">
+            <v>0</v>
+          </cell>
           <cell r="K300" t="str">
             <v>预付款</v>
           </cell>
@@ -24778,7 +25379,9 @@
           <cell r="I301" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J301"/>
+          <cell r="J301">
+            <v>0</v>
+          </cell>
           <cell r="K301" t="str">
             <v>预付款</v>
           </cell>
@@ -24856,7 +25459,9 @@
           <cell r="I302" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J302"/>
+          <cell r="J302">
+            <v>0</v>
+          </cell>
           <cell r="K302" t="str">
             <v>预付款</v>
           </cell>
@@ -24934,7 +25539,9 @@
           <cell r="I303" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J303"/>
+          <cell r="J303">
+            <v>0</v>
+          </cell>
           <cell r="K303" t="str">
             <v>预付款</v>
           </cell>
@@ -25012,7 +25619,9 @@
           <cell r="I304" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J304"/>
+          <cell r="J304">
+            <v>0</v>
+          </cell>
           <cell r="K304" t="str">
             <v>账期付款</v>
           </cell>
@@ -25090,7 +25699,9 @@
           <cell r="I305" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J305"/>
+          <cell r="J305">
+            <v>0</v>
+          </cell>
           <cell r="K305" t="str">
             <v>账期付款</v>
           </cell>
@@ -25168,7 +25779,9 @@
           <cell r="I306" t="str">
             <v/>
           </cell>
-          <cell r="J306"/>
+          <cell r="J306">
+            <v>0</v>
+          </cell>
           <cell r="K306" t="str">
             <v>预付款</v>
           </cell>
@@ -25246,7 +25859,9 @@
           <cell r="I307" t="str">
             <v/>
           </cell>
-          <cell r="J307"/>
+          <cell r="J307">
+            <v>0</v>
+          </cell>
           <cell r="K307" t="str">
             <v>预付款</v>
           </cell>
@@ -25324,7 +25939,9 @@
           <cell r="I308" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J308"/>
+          <cell r="J308">
+            <v>0</v>
+          </cell>
           <cell r="K308" t="str">
             <v>账期付款</v>
           </cell>
@@ -25402,7 +26019,9 @@
           <cell r="I309" t="str">
             <v>商务经理</v>
           </cell>
-          <cell r="J309"/>
+          <cell r="J309">
+            <v>0</v>
+          </cell>
           <cell r="K309" t="str">
             <v>预存款</v>
           </cell>
@@ -25480,7 +26099,9 @@
           <cell r="I310" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J310"/>
+          <cell r="J310">
+            <v>0</v>
+          </cell>
           <cell r="K310" t="str">
             <v>预付款</v>
           </cell>
@@ -25558,7 +26179,9 @@
           <cell r="I311" t="str">
             <v>inside</v>
           </cell>
-          <cell r="J311"/>
+          <cell r="J311">
+            <v>0</v>
+          </cell>
           <cell r="K311" t="str">
             <v>账期付款</v>
           </cell>
@@ -25636,7 +26259,9 @@
           <cell r="I312" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J312"/>
+          <cell r="J312">
+            <v>0</v>
+          </cell>
           <cell r="K312" t="str">
             <v>预付款</v>
           </cell>
@@ -25985,11 +26610,11 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P118" sqref="P118"/>
+      <selection pane="bottomLeft" activeCell="Y134" sqref="Y134:Y138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -26249,14 +26874,14 @@
         <v>254831.51</v>
       </c>
       <c r="V3" s="38">
-        <v>1440000</v>
+        <v>353168.49</v>
       </c>
       <c r="W3" s="38"/>
       <c r="X3" s="39">
-        <v>72000</v>
-      </c>
-      <c r="Y3" s="36">
-        <v>608000</v>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>353168.49</v>
       </c>
       <c r="Z3" s="26">
         <v>0.05</v>
@@ -36665,7 +37290,14 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="135" spans="25:25" ht="14.25">
+      <c r="Y135" s="36"/>
+    </row>
+    <row r="136" spans="25:25">
+      <c r="Y136" s="83"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AE128"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="Q126">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
@@ -36688,8 +37320,8 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36799,46 +37431,46 @@
         <v>48</v>
       </c>
       <c r="H2" s="9">
-        <f>1521642.54+249841.48</f>
-        <v>1771484.02</v>
+        <f>1521642.54+249841.48-254831.51</f>
+        <v>1516652.51</v>
       </c>
       <c r="I2" s="9">
-        <f>1521642.54+249841.48</f>
-        <v>1771484.02</v>
+        <f>1521642.54+249841.48-254831.51</f>
+        <v>1516652.51</v>
       </c>
       <c r="J2" s="13">
         <v>0.05</v>
       </c>
       <c r="K2" s="14">
         <f t="shared" ref="K2:K10" si="0">I2*J2</f>
-        <v>88574.201000000001</v>
+        <v>75832.625500000009</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="14">
         <f t="shared" ref="M2:M10" si="1">K2-L2</f>
-        <v>88574.201000000001</v>
+        <v>75832.625500000009</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>61</v>
       </c>
       <c r="O2" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A2,客户表!A:A,F2,客户表!M:M,G2)+SUMIFS(客户表!W:W,客户表!I:I,A2,客户表!A:A,F2,客户表!M:M,G2)</f>
-        <v>2638257.5673919204</v>
+        <v>1551426.0573919206</v>
       </c>
       <c r="P2" s="63">
         <v>72000</v>
       </c>
       <c r="Q2" s="15">
         <f>(O2-H2+K2)/1.06</f>
-        <v>901271.46074709459</v>
+        <v>104345.44612445339</v>
       </c>
       <c r="R2" s="15">
         <f>Q2-(P2/1.06)</f>
-        <v>833346.93244520784</v>
+        <v>36420.917822566596</v>
       </c>
       <c r="S2" s="16">
         <f>R2/O2</f>
-        <v>0.31587019506553426</v>
+        <v>2.3475767761560781E-2</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="8" t="s">
